--- a/Project_01/Plan_noman.xlsx
+++ b/Project_01/Plan_noman.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3847ea4433313805/WorldQuant_DeepLearning/Nomans_Work_DL_WQU/Project_01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{D2C570FF-926E-4F4C-BC80-5CB170684C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C3EBC3A-B95E-4417-9AFB-8C68E86B2E60}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{D2C570FF-926E-4F4C-BC80-5CB170684C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DFB42C3-9A0E-4137-9305-CD5CA7CEB831}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="852" yWindow="0" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{0B389338-E1EB-4CDF-913B-3EE539EFD6D2}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{0B389338-E1EB-4CDF-913B-3EE539EFD6D2}"/>
   </bookViews>
   <sheets>
     <sheet name="BigPic" sheetId="3" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="NB 4" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="252">
   <si>
     <t>Section</t>
   </si>
@@ -1023,6 +1024,15 @@
   </si>
   <si>
     <t>King abdul aziz</t>
+  </si>
+  <si>
+    <t>MBCS</t>
+  </si>
+  <si>
+    <t>Ummul qura</t>
+  </si>
+  <si>
+    <t>Imam Mohammad ibn</t>
   </si>
 </sst>
 </file>
@@ -1299,6 +1309,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1315,12 +1331,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1686,10 +1696,10 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="22" t="s">
         <v>86</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -1700,8 +1710,8 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="18"/>
-      <c r="B3" s="21"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="8" t="s">
         <v>88</v>
       </c>
@@ -1710,8 +1720,8 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="18"/>
-      <c r="B4" s="21"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="8" t="s">
         <v>89</v>
       </c>
@@ -1720,8 +1730,8 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="18"/>
-      <c r="B5" s="21"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="8" t="s">
         <v>90</v>
       </c>
@@ -1730,8 +1740,8 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="18"/>
-      <c r="B6" s="21"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="8" t="s">
         <v>91</v>
       </c>
@@ -1740,42 +1750,42 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="18"/>
-      <c r="B7" s="21"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="18"/>
-      <c r="B8" s="21"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="8" t="s">
         <v>93</v>
       </c>
       <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="18"/>
-      <c r="B9" s="21"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="8" t="s">
         <v>94</v>
       </c>
       <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1">
-      <c r="A10" s="19"/>
-      <c r="B10" s="22"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="12" t="s">
         <v>95</v>
       </c>
       <c r="D10" s="13"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="22" t="s">
         <v>101</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -1786,8 +1796,8 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="18"/>
-      <c r="B12" s="21"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="8" t="s">
         <v>103</v>
       </c>
@@ -1796,8 +1806,8 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="18"/>
-      <c r="B13" s="21"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="8" t="s">
         <v>104</v>
       </c>
@@ -1806,8 +1816,8 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="18"/>
-      <c r="B14" s="21"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="8" t="s">
         <v>105</v>
       </c>
@@ -1816,8 +1826,8 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="18"/>
-      <c r="B15" s="21"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="8" t="s">
         <v>106</v>
       </c>
@@ -1826,8 +1836,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" thickBot="1">
-      <c r="A16" s="19"/>
-      <c r="B16" s="22"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="12" t="s">
         <v>107</v>
       </c>
@@ -1836,10 +1846,10 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="22" t="s">
         <v>114</v>
       </c>
       <c r="C17" s="9" t="s">
@@ -1850,8 +1860,8 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="18"/>
-      <c r="B18" s="21"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="8" t="s">
         <v>116</v>
       </c>
@@ -1860,8 +1870,8 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="18"/>
-      <c r="B19" s="21"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="8" t="s">
         <v>117</v>
       </c>
@@ -1870,8 +1880,8 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="18"/>
-      <c r="B20" s="21"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="8" t="s">
         <v>118</v>
       </c>
@@ -1880,8 +1890,8 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="18"/>
-      <c r="B21" s="21"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="8" t="s">
         <v>119</v>
       </c>
@@ -1890,18 +1900,18 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" thickBot="1">
-      <c r="A22" s="19"/>
-      <c r="B22" s="22"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="12"/>
       <c r="D22" s="13" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="22" t="s">
         <v>126</v>
       </c>
       <c r="C23" s="9" t="s">
@@ -1912,8 +1922,8 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="18"/>
-      <c r="B24" s="21"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="8" t="s">
         <v>128</v>
       </c>
@@ -1922,8 +1932,8 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="18"/>
-      <c r="B25" s="21"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="8" t="s">
         <v>129</v>
       </c>
@@ -1932,8 +1942,8 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="18"/>
-      <c r="B26" s="21"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="23"/>
       <c r="C26" s="8" t="s">
         <v>130</v>
       </c>
@@ -1942,8 +1952,8 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="18"/>
-      <c r="B27" s="21"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="23"/>
       <c r="C27" s="8" t="s">
         <v>131</v>
       </c>
@@ -1952,8 +1962,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" thickBot="1">
-      <c r="A28" s="19"/>
-      <c r="B28" s="22"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="24"/>
       <c r="C28" s="12" t="s">
         <v>132</v>
       </c>
@@ -1976,10 +1986,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3FA19F2-87B0-4F8F-817D-CC1D3BFB2CBF}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1991,228 +2001,239 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="28.8">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8">
-      <c r="A2" s="24">
+    <row r="2" spans="1:7">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="18" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8">
-      <c r="A3" s="24">
+    <row r="3" spans="1:7">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="18" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="24">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="18" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="24">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="18" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="43.2">
-      <c r="A6" s="24">
+    <row r="6" spans="1:7">
+      <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="18" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="24">
+      <c r="A7" s="18">
         <v>6</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="18" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="24">
+      <c r="A8" s="18">
         <v>7</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="18" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="24">
+      <c r="A9" s="18">
         <v>8</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="18" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="24">
+      <c r="A10" s="18">
         <v>9</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="18" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="24">
+      <c r="A11" s="18">
         <v>10</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="18" t="s">
         <v>239</v>
       </c>
+      <c r="G11" s="18" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="24">
+      <c r="A12" s="18">
         <v>11</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="18" t="s">
         <v>241</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="G13" s="18" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
